--- a/青岛区市街道汇总.xlsx
+++ b/青岛区市街道汇总.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinx\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F257BF4-BCFB-4B88-9DCE-507132B6B603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC734C-DAC7-4A10-8223-FBF670A250C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -711,48 +711,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,7 +1052,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1050,676 +1066,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
